--- a/Code/Results/Cases/Case_0_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_104/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06773696700215481</v>
+        <v>0.02576265356624674</v>
       </c>
       <c r="D2">
-        <v>0.2453365170755575</v>
+        <v>0.2187163449224272</v>
       </c>
       <c r="E2">
-        <v>0.183136660415002</v>
+        <v>0.1739981335038863</v>
       </c>
       <c r="F2">
-        <v>0.5932517973659799</v>
+        <v>1.244428632407768</v>
       </c>
       <c r="G2">
-        <v>0.0007955004217181524</v>
+        <v>0.002447845095296664</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2919956455938859</v>
+        <v>0.6196914913318281</v>
       </c>
       <c r="J2">
-        <v>0.1832258852590201</v>
+        <v>0.1829694901036945</v>
       </c>
       <c r="K2">
-        <v>5.222359485999675</v>
+        <v>1.926523897119182</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.133433559356945</v>
+        <v>2.881358039394911</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05959131411820806</v>
+        <v>0.02308503200887202</v>
       </c>
       <c r="D3">
-        <v>0.2170234917415144</v>
+        <v>0.2111408010845963</v>
       </c>
       <c r="E3">
-        <v>0.1628262526562736</v>
+        <v>0.1693529599698778</v>
       </c>
       <c r="F3">
-        <v>0.5701634060213436</v>
+        <v>1.254511569362656</v>
       </c>
       <c r="G3">
-        <v>0.0008002535904477748</v>
+        <v>0.002450909747672517</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2820879365861835</v>
+        <v>0.6263383624242458</v>
       </c>
       <c r="J3">
-        <v>0.1635575515603023</v>
+        <v>0.1791880082050881</v>
       </c>
       <c r="K3">
-        <v>4.543917101367185</v>
+        <v>1.709701206097748</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.127347654431432</v>
+        <v>2.922835161227283</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05459178344138849</v>
+        <v>0.02143188334719781</v>
       </c>
       <c r="D4">
-        <v>0.1997569996198365</v>
+        <v>0.2065450991217261</v>
       </c>
       <c r="E4">
-        <v>0.1505298567481148</v>
+        <v>0.1665791796037865</v>
       </c>
       <c r="F4">
-        <v>0.5580141679933774</v>
+        <v>1.261676498512166</v>
       </c>
       <c r="G4">
-        <v>0.0008032596903003319</v>
+        <v>0.002452889805782892</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2772240233909535</v>
+        <v>0.6309749586581397</v>
       </c>
       <c r="J4">
-        <v>0.1517503412392784</v>
+        <v>0.1769782326122424</v>
       </c>
       <c r="K4">
-        <v>4.127822749562654</v>
+        <v>1.576197383112344</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.129060823161964</v>
+        <v>2.950833808790989</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05255415123562557</v>
+        <v>0.02075596059319196</v>
       </c>
       <c r="D5">
-        <v>0.1927468837970991</v>
+        <v>0.2046864526286925</v>
       </c>
       <c r="E5">
-        <v>0.1455587698420828</v>
+        <v>0.1654685898885475</v>
       </c>
       <c r="F5">
-        <v>0.5535428158762343</v>
+        <v>1.264840722367524</v>
       </c>
       <c r="G5">
-        <v>0.0008045072700444458</v>
+        <v>0.002453721500704383</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2755300572510322</v>
+        <v>0.6330037209054247</v>
       </c>
       <c r="J5">
-        <v>0.147000745313413</v>
+        <v>0.1761058865288092</v>
       </c>
       <c r="K5">
-        <v>3.958317057071042</v>
+        <v>1.521702919598681</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.131050312375777</v>
+        <v>2.962878484742234</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05221576542725614</v>
+        <v>0.0206435891021215</v>
       </c>
       <c r="D6">
-        <v>0.1915843388048728</v>
+        <v>0.2043786836306936</v>
       </c>
       <c r="E6">
-        <v>0.1447356149293846</v>
+        <v>0.1652853712642717</v>
       </c>
       <c r="F6">
-        <v>0.5528284646113519</v>
+        <v>1.265380890611013</v>
       </c>
       <c r="G6">
-        <v>0.0008047158078652859</v>
+        <v>0.002453861103332126</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.27526565450977</v>
+        <v>0.6333489992642072</v>
       </c>
       <c r="J6">
-        <v>0.1462156574270139</v>
+        <v>0.1759627339152132</v>
       </c>
       <c r="K6">
-        <v>3.930172417761014</v>
+        <v>1.512648786959346</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.13145643055087</v>
+        <v>2.964916800276711</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05456430534371748</v>
+        <v>0.02142277669020842</v>
       </c>
       <c r="D7">
-        <v>0.1996623574576262</v>
+        <v>0.206519975341493</v>
       </c>
       <c r="E7">
-        <v>0.1504626589555365</v>
+        <v>0.1665641217878253</v>
       </c>
       <c r="F7">
-        <v>0.5579519627233509</v>
+        <v>1.261718183151203</v>
       </c>
       <c r="G7">
-        <v>0.0008032764234332858</v>
+        <v>0.002452900921651429</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.277200035139856</v>
+        <v>0.6310017556489491</v>
       </c>
       <c r="J7">
-        <v>0.1516860431105229</v>
+        <v>0.1769663538807293</v>
       </c>
       <c r="K7">
-        <v>4.125536588504474</v>
+        <v>1.575462813862373</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.129082526779911</v>
+        <v>2.950993678512702</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06492746263518967</v>
+        <v>0.024841311841449</v>
       </c>
       <c r="D8">
-        <v>0.2355475418613793</v>
+        <v>0.2160928092285843</v>
       </c>
       <c r="E8">
-        <v>0.1760949535873806</v>
+        <v>0.1723802331284645</v>
       </c>
       <c r="F8">
-        <v>0.5848514949302341</v>
+        <v>1.247702808308652</v>
       </c>
       <c r="G8">
-        <v>0.000797121455935918</v>
+        <v>0.002448881420026642</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2883148962640227</v>
+        <v>0.6218678531275792</v>
       </c>
       <c r="J8">
-        <v>0.176384785969347</v>
+        <v>0.181642358062625</v>
       </c>
       <c r="K8">
-        <v>4.988295256959191</v>
+        <v>1.851842994213996</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.130155034057495</v>
+        <v>2.895132988876298</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08530336297705787</v>
+        <v>0.03147195897220456</v>
       </c>
       <c r="D9">
-        <v>0.3070266375770814</v>
+        <v>0.2353025653250995</v>
       </c>
       <c r="E9">
-        <v>0.2279394912829531</v>
+        <v>0.1844065009046929</v>
       </c>
       <c r="F9">
-        <v>0.6551376446638244</v>
+        <v>1.227967899634884</v>
       </c>
       <c r="G9">
-        <v>0.0007857211579677499</v>
+        <v>0.002441776126493937</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3206771686486505</v>
+        <v>0.608378883696183</v>
       </c>
       <c r="J9">
-        <v>0.2272351864090609</v>
+        <v>0.1917030994898568</v>
       </c>
       <c r="K9">
-        <v>6.687057295084344</v>
+        <v>2.390734903853456</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.17929919521174</v>
+        <v>2.805747503124763</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1003655989992751</v>
+        <v>0.03629799706533277</v>
       </c>
       <c r="D10">
-        <v>0.3604833130640799</v>
+        <v>0.2496781250933822</v>
       </c>
       <c r="E10">
-        <v>0.2672906524582359</v>
+        <v>0.1936205659822647</v>
       </c>
       <c r="F10">
-        <v>0.7196352367714383</v>
+        <v>1.218223213511692</v>
       </c>
       <c r="G10">
-        <v>0.0007777149766490482</v>
+        <v>0.002437024697682038</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3522226227330449</v>
+        <v>0.6011868586913991</v>
       </c>
       <c r="J10">
-        <v>0.2664900874611789</v>
+        <v>0.1996416610974592</v>
       </c>
       <c r="K10">
-        <v>7.944230183173204</v>
+        <v>2.784651785247092</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.249746178684802</v>
+        <v>2.752461608117869</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1072523357953941</v>
+        <v>0.0384834437947319</v>
       </c>
       <c r="D11">
-        <v>0.3850712914890266</v>
+        <v>0.2562740234660907</v>
       </c>
       <c r="E11">
-        <v>0.2855388652558801</v>
+        <v>0.1978944937507165</v>
       </c>
       <c r="F11">
-        <v>0.7522940544850627</v>
+        <v>1.214829124931896</v>
       </c>
       <c r="G11">
-        <v>0.0007741437496509349</v>
+        <v>0.002434963925697048</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3685817523461097</v>
+        <v>0.598510065754482</v>
       </c>
       <c r="J11">
-        <v>0.2848624240489244</v>
+        <v>0.2033727440979476</v>
       </c>
       <c r="K11">
-        <v>8.519333302376424</v>
+        <v>2.963395938758708</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.290623472217675</v>
+        <v>2.730930803019049</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1098664766442852</v>
+        <v>0.03930956221374515</v>
       </c>
       <c r="D12">
-        <v>0.3944268033114611</v>
+        <v>0.2587797229401474</v>
       </c>
       <c r="E12">
-        <v>0.2925054691697682</v>
+        <v>0.199524748364432</v>
       </c>
       <c r="F12">
-        <v>0.765186214488935</v>
+        <v>1.21369377470451</v>
       </c>
       <c r="G12">
-        <v>0.0007728007755542775</v>
+        <v>0.002434197964931976</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3750947411162429</v>
+        <v>0.5975823638502291</v>
       </c>
       <c r="J12">
-        <v>0.2919029590253785</v>
+        <v>0.2048028818675647</v>
       </c>
       <c r="K12">
-        <v>8.737679972472677</v>
+        <v>3.031014169234368</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.307498008356902</v>
+        <v>2.723168957821542</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1093031737327124</v>
+        <v>0.03913170841413205</v>
       </c>
       <c r="D13">
-        <v>0.392409847459902</v>
+        <v>0.2582397230833919</v>
       </c>
       <c r="E13">
-        <v>0.2910024686443791</v>
+        <v>0.1991731191791573</v>
       </c>
       <c r="F13">
-        <v>0.7623855041100995</v>
+        <v>1.213931616534182</v>
       </c>
       <c r="G13">
-        <v>0.0007730896058441583</v>
+        <v>0.002434362288464831</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3736774103396598</v>
+        <v>0.5977783324827683</v>
       </c>
       <c r="J13">
-        <v>0.2903827914889803</v>
+        <v>0.2044941080658162</v>
       </c>
       <c r="K13">
-        <v>8.690628069550996</v>
+        <v>3.016454466415439</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.303799611430861</v>
+        <v>2.724823173308152</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1074672691256922</v>
+        <v>0.0385514385592387</v>
       </c>
       <c r="D14">
-        <v>0.3858400471497703</v>
+        <v>0.2564800097725879</v>
       </c>
       <c r="E14">
-        <v>0.2861108424491405</v>
+        <v>0.1980283792894468</v>
       </c>
       <c r="F14">
-        <v>0.7533438907352945</v>
+        <v>1.214732711345732</v>
       </c>
       <c r="G14">
-        <v>0.000774033079388454</v>
+        <v>0.00243490062130176</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.369111027335002</v>
+        <v>0.5984320184987482</v>
       </c>
       <c r="J14">
-        <v>0.2854399270840986</v>
+        <v>0.2034900563419768</v>
       </c>
       <c r="K14">
-        <v>8.537284795416156</v>
+        <v>2.968960320021665</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.291983032170691</v>
+        <v>2.730284376611678</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1063435824550396</v>
+        <v>0.03819581503911706</v>
       </c>
       <c r="D15">
-        <v>0.3818218382495502</v>
+        <v>0.2554031693610455</v>
       </c>
       <c r="E15">
-        <v>0.2831221272447024</v>
+        <v>0.197328730048298</v>
       </c>
       <c r="F15">
-        <v>0.7478754961588692</v>
+        <v>1.215242944638661</v>
       </c>
       <c r="G15">
-        <v>0.0007746121794870313</v>
+        <v>0.002435232240089734</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3663563281091768</v>
+        <v>0.5988436239213399</v>
       </c>
       <c r="J15">
-        <v>0.282423420672572</v>
+        <v>0.2028772940666528</v>
       </c>
       <c r="K15">
-        <v>8.443434849745813</v>
+        <v>2.93985978604087</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.28493063565972</v>
+        <v>2.733680547619144</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09991634199646171</v>
+        <v>0.03615497007419322</v>
       </c>
       <c r="D16">
-        <v>0.3588823465318143</v>
+        <v>0.2492481908957558</v>
       </c>
       <c r="E16">
-        <v>0.2661056160055253</v>
+        <v>0.1933429096078854</v>
       </c>
       <c r="F16">
-        <v>0.7175716760222457</v>
+        <v>1.21846597475664</v>
       </c>
       <c r="G16">
-        <v>0.0007779497218466234</v>
+        <v>0.002437161393816075</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3511963855172695</v>
+        <v>0.6013737981148637</v>
       </c>
       <c r="J16">
-        <v>0.2653005503163826</v>
+        <v>0.1994002392681438</v>
       </c>
       <c r="K16">
-        <v>7.906719266606103</v>
+        <v>2.772961066304617</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.247262921061974</v>
+        <v>2.753923368975052</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09598323412826915</v>
+        <v>0.03490040762503099</v>
       </c>
       <c r="D17">
-        <v>0.3448828450810879</v>
+        <v>0.2454866579076906</v>
       </c>
       <c r="E17">
-        <v>0.255759893249845</v>
+        <v>0.1909188157292476</v>
       </c>
       <c r="F17">
-        <v>0.6998639615807889</v>
+        <v>1.220709647739255</v>
       </c>
       <c r="G17">
-        <v>0.0007800147781699702</v>
+        <v>0.002438370604133397</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3424308453170894</v>
+        <v>0.603078627245246</v>
       </c>
       <c r="J17">
-        <v>0.2549344894629684</v>
+        <v>0.197297882755521</v>
       </c>
       <c r="K17">
-        <v>7.578356013208747</v>
+        <v>2.670456185859621</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.226502628710108</v>
+        <v>2.767036876189053</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.09372421218817806</v>
+        <v>0.03417788263195121</v>
       </c>
       <c r="D18">
-        <v>0.3368557706102138</v>
+        <v>0.2433284385756593</v>
       </c>
       <c r="E18">
-        <v>0.2498415649668573</v>
+        <v>0.1895322995144184</v>
       </c>
       <c r="F18">
-        <v>0.6899882204123173</v>
+        <v>1.222097895532627</v>
       </c>
       <c r="G18">
-        <v>0.0007812092625446576</v>
+        <v>0.002439075590346782</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.337576338734813</v>
+        <v>0.604115170597602</v>
       </c>
       <c r="J18">
-        <v>0.2490200874897255</v>
+        <v>0.196099936328892</v>
       </c>
       <c r="K18">
-        <v>7.389785269979654</v>
+        <v>2.611455882269979</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.215384928393775</v>
+        <v>2.77483431414592</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09295985843476728</v>
+        <v>0.03393308871207523</v>
       </c>
       <c r="D19">
-        <v>0.3341420805438418</v>
+        <v>0.2425986194868983</v>
       </c>
       <c r="E19">
-        <v>0.2478430725858516</v>
+        <v>0.1890641826556134</v>
       </c>
       <c r="F19">
-        <v>0.6866961904664066</v>
+        <v>1.222584704063628</v>
       </c>
       <c r="G19">
-        <v>0.0007816148720172289</v>
+        <v>0.002439315916801953</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3359639861400154</v>
+        <v>0.6044757273064647</v>
       </c>
       <c r="J19">
-        <v>0.2470255271596642</v>
+        <v>0.1956962675117353</v>
       </c>
       <c r="K19">
-        <v>7.325986065203267</v>
+        <v>2.591472251658161</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.211758380595967</v>
+        <v>2.77751811567498</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.09640158037026936</v>
+        <v>0.03503405483219524</v>
       </c>
       <c r="D20">
-        <v>0.3463704815979582</v>
+        <v>0.2458865303996163</v>
       </c>
       <c r="E20">
-        <v>0.2568578293760169</v>
+        <v>0.191176061970296</v>
       </c>
       <c r="F20">
-        <v>0.7017166367088379</v>
+        <v>1.220460684635981</v>
       </c>
       <c r="G20">
-        <v>0.0007797942596466447</v>
+        <v>0.002438240901141098</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3433443733801909</v>
+        <v>0.6028913496380639</v>
       </c>
       <c r="J20">
-        <v>0.2560329541923494</v>
+        <v>0.1975205152087085</v>
       </c>
       <c r="K20">
-        <v>7.613279560668389</v>
+        <v>2.681372399238285</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.228626538211586</v>
+        <v>2.765614527023217</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1080063375927836</v>
+        <v>0.03872191784513745</v>
       </c>
       <c r="D21">
-        <v>0.3877684988884766</v>
+        <v>0.256996664810373</v>
       </c>
       <c r="E21">
-        <v>0.2875460464622108</v>
+        <v>0.1983642969037547</v>
       </c>
       <c r="F21">
-        <v>0.755984983007707</v>
+        <v>1.21449333739136</v>
       </c>
       <c r="G21">
-        <v>0.00077375571078711</v>
+        <v>0.002434742109474508</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3704434048614047</v>
+        <v>0.5982376794893582</v>
       </c>
       <c r="J21">
-        <v>0.2868894267587621</v>
+        <v>0.2037845020511639</v>
       </c>
       <c r="K21">
-        <v>8.582309132353373</v>
+        <v>2.982912383437849</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.295414930059991</v>
+        <v>2.72866965173813</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1156280133174334</v>
+        <v>0.04112360796951009</v>
       </c>
       <c r="D22">
-        <v>0.4150873524822032</v>
+        <v>0.2643042092662995</v>
       </c>
       <c r="E22">
-        <v>0.3079347474858807</v>
+        <v>0.2031310495434013</v>
       </c>
       <c r="F22">
-        <v>0.7945376371829838</v>
+        <v>1.211467413092805</v>
       </c>
       <c r="G22">
-        <v>0.0007698633718115374</v>
+        <v>0.0024325394004392</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3900239849458629</v>
+        <v>0.5956973530405207</v>
       </c>
       <c r="J22">
-        <v>0.3075465272195572</v>
+        <v>0.2079789850429989</v>
       </c>
       <c r="K22">
-        <v>9.218990921283989</v>
+        <v>3.17958649291279</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.347263419068497</v>
+        <v>2.70680628235948</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1115563187376267</v>
+        <v>0.03984257313963724</v>
       </c>
       <c r="D23">
-        <v>0.4004806936160037</v>
+        <v>0.2603998302590185</v>
       </c>
       <c r="E23">
-        <v>0.2970202285925936</v>
+        <v>0.2005806590145909</v>
       </c>
       <c r="F23">
-        <v>0.7736621931461798</v>
+        <v>1.213002250186079</v>
       </c>
       <c r="G23">
-        <v>0.0007719361129290723</v>
+        <v>0.002433707368562779</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3793920423106201</v>
+        <v>0.5970071902352529</v>
       </c>
       <c r="J23">
-        <v>0.2964732754362132</v>
+        <v>0.2057310945679376</v>
       </c>
       <c r="K23">
-        <v>8.878836273757997</v>
+        <v>3.074655536487683</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.318796452491455</v>
+        <v>2.718265747516767</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.09621243935727364</v>
+        <v>0.03497363685374921</v>
       </c>
       <c r="D24">
-        <v>0.3456978548191785</v>
+        <v>0.245705734532379</v>
       </c>
       <c r="E24">
-        <v>0.2563613608462276</v>
+        <v>0.1910597387412807</v>
       </c>
       <c r="F24">
-        <v>0.7008780968988191</v>
+        <v>1.220572934597683</v>
       </c>
       <c r="G24">
-        <v>0.0007798939334099582</v>
+        <v>0.002438299509317458</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3429307935426422</v>
+        <v>0.6029758421440476</v>
       </c>
       <c r="J24">
-        <v>0.2555361982388575</v>
+        <v>0.1974198296688172</v>
       </c>
       <c r="K24">
-        <v>7.597489979706381</v>
+        <v>2.676437393474146</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.227663781219604</v>
+        <v>2.766256766587702</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07977955813804272</v>
+        <v>0.02968611704844193</v>
       </c>
       <c r="D25">
-        <v>0.2875448723537062</v>
+        <v>0.2300594583771982</v>
       </c>
       <c r="E25">
-        <v>0.2137156858242264</v>
+        <v>0.1810866232795689</v>
       </c>
       <c r="F25">
-        <v>0.6340320408742386</v>
+        <v>1.232473961184752</v>
       </c>
       <c r="G25">
-        <v>0.0007887373799176253</v>
+        <v>0.002443615619215539</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3106600872433418</v>
+        <v>0.6115522416078818</v>
       </c>
       <c r="J25">
-        <v>0.2131785339832106</v>
+        <v>0.1888856223532258</v>
       </c>
       <c r="K25">
-        <v>6.226279852321113</v>
+        <v>2.245294057863532</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.160409516941769</v>
+        <v>2.827760619217344</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_104/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02576265356624674</v>
+        <v>0.06773696700238219</v>
       </c>
       <c r="D2">
-        <v>0.2187163449224272</v>
+        <v>0.245336517075657</v>
       </c>
       <c r="E2">
-        <v>0.1739981335038863</v>
+        <v>0.1831366604150091</v>
       </c>
       <c r="F2">
-        <v>1.244428632407768</v>
+        <v>0.5932517973659799</v>
       </c>
       <c r="G2">
-        <v>0.002447845095296664</v>
+        <v>0.0007955004217172087</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6196914913318281</v>
+        <v>0.2919956455938788</v>
       </c>
       <c r="J2">
-        <v>0.1829694901036945</v>
+        <v>0.1832258852590982</v>
       </c>
       <c r="K2">
-        <v>1.926523897119182</v>
+        <v>5.222359485999675</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.881358039394911</v>
+        <v>1.133433559356988</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02308503200887202</v>
+        <v>0.05959131411820806</v>
       </c>
       <c r="D3">
-        <v>0.2111408010845963</v>
+        <v>0.2170234917415286</v>
       </c>
       <c r="E3">
-        <v>0.1693529599698778</v>
+        <v>0.1628262526562594</v>
       </c>
       <c r="F3">
-        <v>1.254511569362656</v>
+        <v>0.5701634060213436</v>
       </c>
       <c r="G3">
-        <v>0.002450909747672517</v>
+        <v>0.0008002535904476638</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6263383624242458</v>
+        <v>0.2820879365861835</v>
       </c>
       <c r="J3">
-        <v>0.1791880082050881</v>
+        <v>0.1635575515602525</v>
       </c>
       <c r="K3">
-        <v>1.709701206097748</v>
+        <v>4.543917101367185</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.922835161227283</v>
+        <v>1.127347654431432</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02143188334719781</v>
+        <v>0.05459178344139559</v>
       </c>
       <c r="D4">
-        <v>0.2065450991217261</v>
+        <v>0.1997569996197228</v>
       </c>
       <c r="E4">
-        <v>0.1665791796037865</v>
+        <v>0.150529856748129</v>
       </c>
       <c r="F4">
-        <v>1.261676498512166</v>
+        <v>0.5580141679933703</v>
       </c>
       <c r="G4">
-        <v>0.002452889805782892</v>
+        <v>0.000803259690300164</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6309749586581397</v>
+        <v>0.2772240233909464</v>
       </c>
       <c r="J4">
-        <v>0.1769782326122424</v>
+        <v>0.1517503412393282</v>
       </c>
       <c r="K4">
-        <v>1.576197383112344</v>
+        <v>4.127822749562711</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.950833808790989</v>
+        <v>1.129060823161964</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02075596059319196</v>
+        <v>0.05255415123562557</v>
       </c>
       <c r="D5">
-        <v>0.2046864526286925</v>
+        <v>0.1927468837971134</v>
       </c>
       <c r="E5">
-        <v>0.1654685898885475</v>
+        <v>0.1455587698420864</v>
       </c>
       <c r="F5">
-        <v>1.264840722367524</v>
+        <v>0.5535428158762485</v>
       </c>
       <c r="G5">
-        <v>0.002453721500704383</v>
+        <v>0.0008045072700280578</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6330037209054247</v>
+        <v>0.2755300572510144</v>
       </c>
       <c r="J5">
-        <v>0.1761058865288092</v>
+        <v>0.1470007453133846</v>
       </c>
       <c r="K5">
-        <v>1.521702919598681</v>
+        <v>3.958317057070701</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.962878484742234</v>
+        <v>1.131050312375734</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0206435891021215</v>
+        <v>0.05221576542695061</v>
       </c>
       <c r="D6">
-        <v>0.2043786836306936</v>
+        <v>0.191584338804816</v>
       </c>
       <c r="E6">
-        <v>0.1652853712642717</v>
+        <v>0.1447356149293917</v>
       </c>
       <c r="F6">
-        <v>1.265380890611013</v>
+        <v>0.5528284646113377</v>
       </c>
       <c r="G6">
-        <v>0.002453861103332126</v>
+        <v>0.0008047158079578232</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6333489992642072</v>
+        <v>0.27526565450977</v>
       </c>
       <c r="J6">
-        <v>0.1759627339152132</v>
+        <v>0.1462156574269642</v>
       </c>
       <c r="K6">
-        <v>1.512648786959346</v>
+        <v>3.930172417761071</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.964916800276711</v>
+        <v>1.131456430550841</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02142277669020842</v>
+        <v>0.05456430534363932</v>
       </c>
       <c r="D7">
-        <v>0.206519975341493</v>
+        <v>0.1996623574575977</v>
       </c>
       <c r="E7">
-        <v>0.1665641217878253</v>
+        <v>0.1504626589555187</v>
       </c>
       <c r="F7">
-        <v>1.261718183151203</v>
+        <v>0.5579519627233651</v>
       </c>
       <c r="G7">
-        <v>0.002452900921651429</v>
+        <v>0.0008032764235259717</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6310017556489491</v>
+        <v>0.2772000351398454</v>
       </c>
       <c r="J7">
-        <v>0.1769663538807293</v>
+        <v>0.151686043110459</v>
       </c>
       <c r="K7">
-        <v>1.575462813862373</v>
+        <v>4.125536588504644</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.950993678512702</v>
+        <v>1.129082526779897</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.024841311841449</v>
+        <v>0.06492746263525362</v>
       </c>
       <c r="D8">
-        <v>0.2160928092285843</v>
+        <v>0.2355475418613509</v>
       </c>
       <c r="E8">
-        <v>0.1723802331284645</v>
+        <v>0.1760949535873806</v>
       </c>
       <c r="F8">
-        <v>1.247702808308652</v>
+        <v>0.5848514949302555</v>
       </c>
       <c r="G8">
-        <v>0.002448881420026642</v>
+        <v>0.0007971214559547057</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6218678531275792</v>
+        <v>0.2883148962640263</v>
       </c>
       <c r="J8">
-        <v>0.181642358062625</v>
+        <v>0.1763847859693684</v>
       </c>
       <c r="K8">
-        <v>1.851842994213996</v>
+        <v>4.988295256959361</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.895132988876298</v>
+        <v>1.130155034057495</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03147195897220456</v>
+        <v>0.0853033629769584</v>
       </c>
       <c r="D9">
-        <v>0.2353025653250995</v>
+        <v>0.3070266375771666</v>
       </c>
       <c r="E9">
-        <v>0.1844065009046929</v>
+        <v>0.2279394912829176</v>
       </c>
       <c r="F9">
-        <v>1.227967899634884</v>
+        <v>0.6551376446638244</v>
       </c>
       <c r="G9">
-        <v>0.002441776126493937</v>
+        <v>0.0007857211579478826</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.608378883696183</v>
+        <v>0.3206771686486434</v>
       </c>
       <c r="J9">
-        <v>0.1917030994898568</v>
+        <v>0.2272351864090183</v>
       </c>
       <c r="K9">
-        <v>2.390734903853456</v>
+        <v>6.687057295084287</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.805747503124763</v>
+        <v>1.17929919521174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03629799706533277</v>
+        <v>0.1003655989992609</v>
       </c>
       <c r="D10">
-        <v>0.2496781250933822</v>
+        <v>0.3604833130639662</v>
       </c>
       <c r="E10">
-        <v>0.1936205659822647</v>
+        <v>0.2672906524582288</v>
       </c>
       <c r="F10">
-        <v>1.218223213511692</v>
+        <v>0.7196352367714383</v>
       </c>
       <c r="G10">
-        <v>0.002437024697682038</v>
+        <v>0.0007777149765701113</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6011868586913991</v>
+        <v>0.3522226227330307</v>
       </c>
       <c r="J10">
-        <v>0.1996416610974592</v>
+        <v>0.2664900874611646</v>
       </c>
       <c r="K10">
-        <v>2.784651785247092</v>
+        <v>7.94423018317309</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.752461608117869</v>
+        <v>1.249746178684745</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0384834437947319</v>
+        <v>0.1072523357953941</v>
       </c>
       <c r="D11">
-        <v>0.2562740234660907</v>
+        <v>0.3850712914891403</v>
       </c>
       <c r="E11">
-        <v>0.1978944937507165</v>
+        <v>0.2855388652558872</v>
       </c>
       <c r="F11">
-        <v>1.214829124931896</v>
+        <v>0.7522940544850627</v>
       </c>
       <c r="G11">
-        <v>0.002434963925697048</v>
+        <v>0.0007741437496223421</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.598510065754482</v>
+        <v>0.3685817523461097</v>
       </c>
       <c r="J11">
-        <v>0.2033727440979476</v>
+        <v>0.2848624240489244</v>
       </c>
       <c r="K11">
-        <v>2.963395938758708</v>
+        <v>8.519333302376651</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.730930803019049</v>
+        <v>1.290623472217732</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03930956221374515</v>
+        <v>0.1098664766440436</v>
       </c>
       <c r="D12">
-        <v>0.2587797229401474</v>
+        <v>0.3944268033114326</v>
       </c>
       <c r="E12">
-        <v>0.199524748364432</v>
+        <v>0.2925054691697611</v>
       </c>
       <c r="F12">
-        <v>1.21369377470451</v>
+        <v>0.765186214488935</v>
       </c>
       <c r="G12">
-        <v>0.002434197964931976</v>
+        <v>0.0007728007755535261</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5975823638502291</v>
+        <v>0.3750947411162358</v>
       </c>
       <c r="J12">
-        <v>0.2048028818675647</v>
+        <v>0.2919029590253643</v>
       </c>
       <c r="K12">
-        <v>3.031014169234368</v>
+        <v>8.737679972472847</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.723168957821542</v>
+        <v>1.307498008356873</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03913170841413205</v>
+        <v>0.1093031737327124</v>
       </c>
       <c r="D13">
-        <v>0.2582397230833919</v>
+        <v>0.392409847459902</v>
       </c>
       <c r="E13">
-        <v>0.1991731191791573</v>
+        <v>0.291002468644372</v>
       </c>
       <c r="F13">
-        <v>1.213931616534182</v>
+        <v>0.762385504110128</v>
       </c>
       <c r="G13">
-        <v>0.002434362288464831</v>
+        <v>0.0007730896057924763</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5977783324827683</v>
+        <v>0.3736774103396883</v>
       </c>
       <c r="J13">
-        <v>0.2044941080658162</v>
+        <v>0.2903827914890371</v>
       </c>
       <c r="K13">
-        <v>3.016454466415439</v>
+        <v>8.690628069550769</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.724823173308152</v>
+        <v>1.303799611430861</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0385514385592387</v>
+        <v>0.1074672691256922</v>
       </c>
       <c r="D14">
-        <v>0.2564800097725879</v>
+        <v>0.3858400471497134</v>
       </c>
       <c r="E14">
-        <v>0.1980283792894468</v>
+        <v>0.2861108424491121</v>
       </c>
       <c r="F14">
-        <v>1.214732711345732</v>
+        <v>0.7533438907352945</v>
       </c>
       <c r="G14">
-        <v>0.00243490062130176</v>
+        <v>0.0007740330793656542</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5984320184987482</v>
+        <v>0.369111027335002</v>
       </c>
       <c r="J14">
-        <v>0.2034900563419768</v>
+        <v>0.2854399270840986</v>
       </c>
       <c r="K14">
-        <v>2.968960320021665</v>
+        <v>8.537284795416326</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.730284376611678</v>
+        <v>1.291983032170748</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03819581503911706</v>
+        <v>0.1063435824547412</v>
       </c>
       <c r="D15">
-        <v>0.2554031693610455</v>
+        <v>0.3818218382496354</v>
       </c>
       <c r="E15">
-        <v>0.197328730048298</v>
+        <v>0.2831221272447308</v>
       </c>
       <c r="F15">
-        <v>1.215242944638661</v>
+        <v>0.7478754961588265</v>
       </c>
       <c r="G15">
-        <v>0.002435232240089734</v>
+        <v>0.0007746121795227821</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5988436239213399</v>
+        <v>0.3663563281091768</v>
       </c>
       <c r="J15">
-        <v>0.2028772940666528</v>
+        <v>0.2824234206725862</v>
       </c>
       <c r="K15">
-        <v>2.93985978604087</v>
+        <v>8.44343484974587</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.733680547619144</v>
+        <v>1.284930635659634</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03615497007419322</v>
+        <v>0.09991634199623434</v>
       </c>
       <c r="D16">
-        <v>0.2492481908957558</v>
+        <v>0.3588823465318143</v>
       </c>
       <c r="E16">
-        <v>0.1933429096078854</v>
+        <v>0.2661056160055679</v>
       </c>
       <c r="F16">
-        <v>1.21846597475664</v>
+        <v>0.7175716760222457</v>
       </c>
       <c r="G16">
-        <v>0.002437161393816075</v>
+        <v>0.0007779497219044187</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6013737981148637</v>
+        <v>0.3511963855172837</v>
       </c>
       <c r="J16">
-        <v>0.1994002392681438</v>
+        <v>0.2653005503163968</v>
       </c>
       <c r="K16">
-        <v>2.772961066304617</v>
+        <v>7.90671926660616</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.753923368975052</v>
+        <v>1.247262921061974</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03490040762503099</v>
+        <v>0.09598323412826915</v>
       </c>
       <c r="D17">
-        <v>0.2454866579076906</v>
+        <v>0.3448828450809742</v>
       </c>
       <c r="E17">
-        <v>0.1909188157292476</v>
+        <v>0.2557598932498664</v>
       </c>
       <c r="F17">
-        <v>1.220709647739255</v>
+        <v>0.6998639615807889</v>
       </c>
       <c r="G17">
-        <v>0.002438370604133397</v>
+        <v>0.0007800147780331043</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.603078627245246</v>
+        <v>0.3424308453171037</v>
       </c>
       <c r="J17">
-        <v>0.197297882755521</v>
+        <v>0.2549344894629826</v>
       </c>
       <c r="K17">
-        <v>2.670456185859621</v>
+        <v>7.578356013208577</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.767036876189053</v>
+        <v>1.226502628710051</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03417788263195121</v>
+        <v>0.09372421218816385</v>
       </c>
       <c r="D18">
-        <v>0.2433284385756593</v>
+        <v>0.3368557706102706</v>
       </c>
       <c r="E18">
-        <v>0.1895322995144184</v>
+        <v>0.2498415649668573</v>
       </c>
       <c r="F18">
-        <v>1.222097895532627</v>
+        <v>0.6899882204123173</v>
       </c>
       <c r="G18">
-        <v>0.002439075590346782</v>
+        <v>0.0007812092624654987</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.604115170597602</v>
+        <v>0.3375763387347988</v>
       </c>
       <c r="J18">
-        <v>0.196099936328892</v>
+        <v>0.2490200874897823</v>
       </c>
       <c r="K18">
-        <v>2.611455882269979</v>
+        <v>7.389785269979654</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.77483431414592</v>
+        <v>1.215384928393803</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03393308871207523</v>
+        <v>0.0929598584345257</v>
       </c>
       <c r="D19">
-        <v>0.2425986194868983</v>
+        <v>0.3341420805439554</v>
       </c>
       <c r="E19">
-        <v>0.1890641826556134</v>
+        <v>0.2478430725858516</v>
       </c>
       <c r="F19">
-        <v>1.222584704063628</v>
+        <v>0.6866961904663924</v>
       </c>
       <c r="G19">
-        <v>0.002439315916801953</v>
+        <v>0.0007816148720955843</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6044757273064647</v>
+        <v>0.3359639861400296</v>
       </c>
       <c r="J19">
-        <v>0.1956962675117353</v>
+        <v>0.2470255271596784</v>
       </c>
       <c r="K19">
-        <v>2.591472251658161</v>
+        <v>7.325986065203324</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.77751811567498</v>
+        <v>1.211758380596024</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03503405483219524</v>
+        <v>0.09640158037026936</v>
       </c>
       <c r="D20">
-        <v>0.2458865303996163</v>
+        <v>0.3463704815979867</v>
       </c>
       <c r="E20">
-        <v>0.191176061970296</v>
+        <v>0.2568578293760027</v>
       </c>
       <c r="F20">
-        <v>1.220460684635981</v>
+        <v>0.7017166367088237</v>
       </c>
       <c r="G20">
-        <v>0.002438240901141098</v>
+        <v>0.0007797942596480201</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6028913496380639</v>
+        <v>0.3433443733801695</v>
       </c>
       <c r="J20">
-        <v>0.1975205152087085</v>
+        <v>0.2560329541924489</v>
       </c>
       <c r="K20">
-        <v>2.681372399238285</v>
+        <v>7.613279560668389</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.765614527023217</v>
+        <v>1.228626538211529</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03872191784513745</v>
+        <v>0.1080063375927693</v>
       </c>
       <c r="D21">
-        <v>0.256996664810373</v>
+        <v>0.3877684988884198</v>
       </c>
       <c r="E21">
-        <v>0.1983642969037547</v>
+        <v>0.2875460464622392</v>
       </c>
       <c r="F21">
-        <v>1.21449333739136</v>
+        <v>0.755984983007707</v>
       </c>
       <c r="G21">
-        <v>0.002434742109474508</v>
+        <v>0.0007737557108155033</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5982376794893582</v>
+        <v>0.3704434048614047</v>
       </c>
       <c r="J21">
-        <v>0.2037845020511639</v>
+        <v>0.2868894267587621</v>
       </c>
       <c r="K21">
-        <v>2.982912383437849</v>
+        <v>8.58230913235343</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.72866965173813</v>
+        <v>1.295414930060133</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04112360796951009</v>
+        <v>0.1156280133172061</v>
       </c>
       <c r="D22">
-        <v>0.2643042092662995</v>
+        <v>0.4150873524820042</v>
       </c>
       <c r="E22">
-        <v>0.2031310495434013</v>
+        <v>0.3079347474858878</v>
       </c>
       <c r="F22">
-        <v>1.211467413092805</v>
+        <v>0.794537637182998</v>
       </c>
       <c r="G22">
-        <v>0.0024325394004392</v>
+        <v>0.0007698633717613722</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5956973530405207</v>
+        <v>0.3900239849458629</v>
       </c>
       <c r="J22">
-        <v>0.2079789850429989</v>
+        <v>0.3075465272196141</v>
       </c>
       <c r="K22">
-        <v>3.17958649291279</v>
+        <v>9.218990921283932</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.70680628235948</v>
+        <v>1.347263419068469</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03984257313963724</v>
+        <v>0.1115563187373709</v>
       </c>
       <c r="D23">
-        <v>0.2603998302590185</v>
+        <v>0.4004806936162311</v>
       </c>
       <c r="E23">
-        <v>0.2005806590145909</v>
+        <v>0.2970202285925936</v>
       </c>
       <c r="F23">
-        <v>1.213002250186079</v>
+        <v>0.773662193146194</v>
       </c>
       <c r="G23">
-        <v>0.002433707368562779</v>
+        <v>0.000771936112924432</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5970071902352529</v>
+        <v>0.3793920423106201</v>
       </c>
       <c r="J23">
-        <v>0.2057310945679376</v>
+        <v>0.2964732754361563</v>
       </c>
       <c r="K23">
-        <v>3.074655536487683</v>
+        <v>8.878836273758225</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.718265747516767</v>
+        <v>1.318796452491512</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03497363685374921</v>
+        <v>0.09621243935676205</v>
       </c>
       <c r="D24">
-        <v>0.245705734532379</v>
+        <v>0.3456978548191927</v>
       </c>
       <c r="E24">
-        <v>0.1910597387412807</v>
+        <v>0.2563613608462205</v>
       </c>
       <c r="F24">
-        <v>1.220572934597683</v>
+        <v>0.7008780968988049</v>
       </c>
       <c r="G24">
-        <v>0.002438299509317458</v>
+        <v>0.0007798939333903609</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6029758421440476</v>
+        <v>0.3429307935426422</v>
       </c>
       <c r="J24">
-        <v>0.1974198296688172</v>
+        <v>0.2555361982388149</v>
       </c>
       <c r="K24">
-        <v>2.676437393474146</v>
+        <v>7.597489979706268</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.766256766587702</v>
+        <v>1.227663781219604</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02968611704844193</v>
+        <v>0.07977955813812798</v>
       </c>
       <c r="D25">
-        <v>0.2300594583771982</v>
+        <v>0.2875448723535783</v>
       </c>
       <c r="E25">
-        <v>0.1810866232795689</v>
+        <v>0.2137156858242193</v>
       </c>
       <c r="F25">
-        <v>1.232473961184752</v>
+        <v>0.6340320408742386</v>
       </c>
       <c r="G25">
-        <v>0.002443615619215539</v>
+        <v>0.0007887373800333721</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6115522416078818</v>
+        <v>0.3106600872433347</v>
       </c>
       <c r="J25">
-        <v>0.1888856223532258</v>
+        <v>0.2131785339831538</v>
       </c>
       <c r="K25">
-        <v>2.245294057863532</v>
+        <v>6.22627985232117</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.827760619217344</v>
+        <v>1.160409516941769</v>
       </c>
     </row>
   </sheetData>
